--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>293534.0625461577</v>
+        <v>284594.9520888522</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24057358.35711538</v>
+        <v>24057358.35711537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12358746.90168756</v>
+        <v>12358746.90168757</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4623114.550152538</v>
+        <v>4623114.550152539</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>380.1025316638163</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>334.7943098894893</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1025316638163</v>
+        <v>180.8791588808099</v>
       </c>
       <c r="F11" t="n">
         <v>380.1025316638163</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.59718071435201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>90.25294823083186</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.5943502376797</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3365560365643</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>84.82342776396928</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>87.8620820300351</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>153.6150006628197</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3098363030213</v>
+        <v>175.5979831225133</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1517,7 +1517,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>49.67523878086634</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4675424422307</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.76311615258536</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>169.5449896719115</v>
       </c>
       <c r="T13" t="n">
         <v>233.4798324570193</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>44.14027538055911</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.5413616586575</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1025316638163</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>380.1025316638163</v>
@@ -1624,7 +1624,7 @@
         <v>380.1025316638163</v>
       </c>
       <c r="H14" t="n">
-        <v>288.170675930369</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>90.25294823083185</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.62363395912028</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>380.1025316638163</v>
       </c>
     </row>
     <row r="15">
@@ -1691,16 +1691,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>95.97872447276447</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>99.57603466708743</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>87.8620820300351</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>153.6150006628197</v>
       </c>
       <c r="U15" t="n">
         <v>195.3098363030213</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.3125221824664</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4675424422307</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>89.32796706574098</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>26.57773796308902</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>334.7943098894893</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>380.1025316638163</v>
       </c>
-      <c r="F17" t="n">
-        <v>380.1025316638163</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>11.59718071435199</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>90.25294823083183</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5943502376797</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>55.29301706119117</v>
       </c>
       <c r="Y17" t="n">
-        <v>380.1025316638163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,22 +1925,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>95.8730193218978</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.8947215166441</v>
       </c>
       <c r="H18" t="n">
-        <v>60.1356659537741</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>87.8620820300351</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>153.6150006628197</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>195.3098363030213</v>
@@ -1991,7 +1991,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.515945703765915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.7181507608077</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>132.1627140427156</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.76311615258535</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.4798324570193</v>
+        <v>189.3040130143627</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9232712664514</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>380.1025316638163</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>380.1025316638163</v>
+        <v>266.887367298871</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>11.59718071435199</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>90.25294823083183</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>334.9741436971225</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>380.1025316638163</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>99.57603466708743</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>87.8620820300351</v>
       </c>
       <c r="T21" t="n">
-        <v>153.6150006628197</v>
+        <v>104.8756012919712</v>
       </c>
       <c r="U21" t="n">
         <v>195.3098363030213</v>
@@ -2225,7 +2225,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>132.5494060298811</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.76311615258535</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>233.4798324570193</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9232712664514</v>
+        <v>235.7474518237947</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>405.096273881332</v>
+        <v>355.1119378240538</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>83.78946074098185</v>
       </c>
       <c r="T24" t="n">
-        <v>152.7312370348055</v>
+        <v>152.7312370348056</v>
       </c>
       <c r="U24" t="n">
         <v>195.2954114342289</v>
@@ -2478,25 +2478,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>37.05878508127656</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
-        <v>191.8456572967744</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
-        <v>201.7225893040611</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3037726831681</v>
+        <v>147.7779974112815</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H27" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.78946074098128</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T27" t="n">
         <v>152.7312370348056</v>
@@ -2718,22 +2718,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>7.623196310958243</v>
       </c>
       <c r="H28" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>63.08261189678742</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.3145745171349</v>
+        <v>358.2904734319584</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>200.4432499144361</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>83.78946074098185</v>
       </c>
       <c r="T30" t="n">
-        <v>152.7312370348051</v>
+        <v>152.7312370348056</v>
       </c>
       <c r="U30" t="n">
         <v>195.2954114342289</v>
@@ -2958,16 +2958,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>130.8723762908272</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9132448002744</v>
+        <v>203.7138264056841</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>179.8691666003163</v>
       </c>
       <c r="G32" t="n">
-        <v>213.1577858592873</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
         <v>283.9738944557603</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424954</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>55.8525559877767</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9132448002744</v>
@@ -3249,7 +3249,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>85.32713462786067</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>279.505658378865</v>
       </c>
       <c r="D35" t="n">
-        <v>328.6422157026744</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3280,7 +3280,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.6754635109993</v>
+        <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>93.35052185511404</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
-        <v>127.6063787117344</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U37" t="n">
         <v>279.9132448002744</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>376.7036141571357</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>93.8066869840244</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3678,10 +3678,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
-        <v>82.13424244604892</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>232.6944259398202</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>149.911641622173</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3037726831681</v>
+        <v>188.3034179670233</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>83.38190924268709</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T42" t="n">
         <v>152.7312370348056</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3957,13 +3957,13 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>181.8785345858793</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>108.6883276615973</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>347.3238348531972</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T44" t="n">
         <v>209.8004861190321</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>34.12252132104626</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>195.2954114342289</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>211.574411736897</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
@@ -4137,7 +4137,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>112.3226046156578</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>208.3069477078705</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1136.468175479693</v>
+        <v>608.7706987542954</v>
       </c>
       <c r="C11" t="n">
-        <v>798.2921048842494</v>
+        <v>608.7706987542954</v>
       </c>
       <c r="D11" t="n">
-        <v>798.2921048842494</v>
+        <v>608.7706987542954</v>
       </c>
       <c r="E11" t="n">
-        <v>414.3501537086773</v>
+        <v>426.0644776625682</v>
       </c>
       <c r="F11" t="n">
-        <v>30.40820253310531</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="G11" t="n">
-        <v>30.40820253310531</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="H11" t="n">
-        <v>30.40820253310531</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="I11" t="n">
-        <v>30.40820253310531</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="J11" t="n">
         <v>118.8631127885983</v>
       </c>
       <c r="K11" t="n">
-        <v>271.9831935811737</v>
+        <v>271.983193581174</v>
       </c>
       <c r="L11" t="n">
-        <v>476.8874071605594</v>
+        <v>476.8874071605596</v>
       </c>
       <c r="M11" t="n">
-        <v>717.7089477476837</v>
+        <v>717.7089477476839</v>
       </c>
       <c r="N11" t="n">
         <v>964.2958250261044</v>
       </c>
       <c r="O11" t="n">
-        <v>1191.740040054295</v>
+        <v>1191.740040054294</v>
       </c>
       <c r="P11" t="n">
-        <v>1371.885510125089</v>
+        <v>1371.885510125088</v>
       </c>
       <c r="Q11" t="n">
         <v>1487.65729343442</v>
@@ -5068,25 +5068,25 @@
         <v>1520.410126655265</v>
       </c>
       <c r="S11" t="n">
-        <v>1520.410126655265</v>
+        <v>1429.245532482708</v>
       </c>
       <c r="T11" t="n">
-        <v>1520.410126655265</v>
+        <v>1215.51386557596</v>
       </c>
       <c r="U11" t="n">
-        <v>1520.410126655265</v>
+        <v>958.6082534178147</v>
       </c>
       <c r="V11" t="n">
-        <v>1520.410126655265</v>
+        <v>608.7706987542954</v>
       </c>
       <c r="W11" t="n">
-        <v>1520.410126655265</v>
+        <v>608.7706987542954</v>
       </c>
       <c r="X11" t="n">
-        <v>1520.410126655265</v>
+        <v>608.7706987542954</v>
       </c>
       <c r="Y11" t="n">
-        <v>1520.410126655265</v>
+        <v>608.7706987542954</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>475.9405414468781</v>
+        <v>284.8960897918316</v>
       </c>
       <c r="C12" t="n">
-        <v>341.9454701958238</v>
+        <v>150.9010185407773</v>
       </c>
       <c r="D12" t="n">
-        <v>225.0483124152162</v>
+        <v>150.9010185407773</v>
       </c>
       <c r="E12" t="n">
-        <v>139.3680823506007</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="F12" t="n">
-        <v>30.40820253310531</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="G12" t="n">
-        <v>30.40820253310531</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="H12" t="n">
-        <v>30.40820253310531</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="I12" t="n">
-        <v>45.02687594044846</v>
+        <v>45.02687594044844</v>
       </c>
       <c r="J12" t="n">
-        <v>90.08878649423804</v>
+        <v>90.08878649423799</v>
       </c>
       <c r="K12" t="n">
-        <v>198.7594729997721</v>
+        <v>466.3902928414161</v>
       </c>
       <c r="L12" t="n">
-        <v>514.2355845413466</v>
+        <v>631.2720708116128</v>
       </c>
       <c r="M12" t="n">
-        <v>714.4843740712897</v>
+        <v>831.5208603415559</v>
       </c>
       <c r="N12" t="n">
-        <v>925.8686543920982</v>
+        <v>1042.905140662364</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.170160739276</v>
+        <v>1227.281442829189</v>
       </c>
       <c r="P12" t="n">
-        <v>1442.318506301558</v>
+        <v>1367.429788391471</v>
       </c>
       <c r="Q12" t="n">
         <v>1515.78668926761</v>
@@ -5147,25 +5147,25 @@
         <v>1520.410126655265</v>
       </c>
       <c r="S12" t="n">
-        <v>1431.660548847149</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="T12" t="n">
-        <v>1276.493881510967</v>
+        <v>1365.243459319084</v>
       </c>
       <c r="U12" t="n">
-        <v>1079.211218578623</v>
+        <v>1187.871759195333</v>
       </c>
       <c r="V12" t="n">
-        <v>865.4996915716565</v>
+        <v>974.1602321883666</v>
       </c>
       <c r="W12" t="n">
-        <v>652.2665233079853</v>
+        <v>760.9270639246954</v>
       </c>
       <c r="X12" t="n">
-        <v>475.9405414468781</v>
+        <v>584.6010820635883</v>
       </c>
       <c r="Y12" t="n">
-        <v>475.9405414468781</v>
+        <v>425.1991224274183</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>497.8365500614984</v>
+        <v>416.3097097303595</v>
       </c>
       <c r="C13" t="n">
-        <v>497.8365500614984</v>
+        <v>245.216337292076</v>
       </c>
       <c r="D13" t="n">
-        <v>497.8365500614984</v>
+        <v>245.216337292076</v>
       </c>
       <c r="E13" t="n">
-        <v>336.9257349298178</v>
+        <v>245.216337292076</v>
       </c>
       <c r="F13" t="n">
-        <v>172.2946090404091</v>
+        <v>80.58521140266726</v>
       </c>
       <c r="G13" t="n">
-        <v>172.2946090404091</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="H13" t="n">
-        <v>30.40820253310531</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="I13" t="n">
-        <v>30.40820253310531</v>
+        <v>30.4082025331053</v>
       </c>
       <c r="J13" t="n">
         <v>104.6662819867954</v>
       </c>
       <c r="K13" t="n">
-        <v>151.82529718537</v>
+        <v>358.1054907710841</v>
       </c>
       <c r="L13" t="n">
-        <v>528.1268035325481</v>
+        <v>734.4069971182621</v>
       </c>
       <c r="M13" t="n">
-        <v>619.6404974759993</v>
+        <v>812.124617201977</v>
       </c>
       <c r="N13" t="n">
-        <v>698.6924642534544</v>
+        <v>891.1765839794322</v>
       </c>
       <c r="O13" t="n">
-        <v>1074.993970600633</v>
+        <v>1074.993970600632</v>
       </c>
       <c r="P13" t="n">
         <v>1383.610808788392</v>
@@ -5223,28 +5223,28 @@
         <v>1520.410126655265</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.410126655265</v>
+        <v>1474.184756804169</v>
       </c>
       <c r="S13" t="n">
-        <v>1520.410126655265</v>
+        <v>1302.927191479006</v>
       </c>
       <c r="T13" t="n">
-        <v>1284.571912052215</v>
+        <v>1067.088976875956</v>
       </c>
       <c r="U13" t="n">
-        <v>1284.571912052215</v>
+        <v>1067.088976875956</v>
       </c>
       <c r="V13" t="n">
-        <v>1239.985775304176</v>
+        <v>1067.088976875956</v>
       </c>
       <c r="W13" t="n">
-        <v>960.9161108130502</v>
+        <v>1067.088976875956</v>
       </c>
       <c r="X13" t="n">
-        <v>722.5722486727336</v>
+        <v>828.7451147356392</v>
       </c>
       <c r="Y13" t="n">
-        <v>497.8365500614984</v>
+        <v>604.0094161244039</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1473.315546898578</v>
+        <v>1045.303581307136</v>
       </c>
       <c r="C14" t="n">
-        <v>1473.315546898578</v>
+        <v>798.2921048842494</v>
       </c>
       <c r="D14" t="n">
-        <v>1473.315546898578</v>
+        <v>798.2921048842494</v>
       </c>
       <c r="E14" t="n">
-        <v>1089.373595723006</v>
+        <v>798.2921048842494</v>
       </c>
       <c r="F14" t="n">
-        <v>705.431644547434</v>
+        <v>414.3501537086773</v>
       </c>
       <c r="G14" t="n">
-        <v>321.4896933718619</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="H14" t="n">
         <v>30.40820253310531</v>
@@ -5278,19 +5278,19 @@
         <v>30.40820253310531</v>
       </c>
       <c r="J14" t="n">
-        <v>118.8631127885982</v>
+        <v>118.8631127885983</v>
       </c>
       <c r="K14" t="n">
-        <v>271.9831935811739</v>
+        <v>271.983193581174</v>
       </c>
       <c r="L14" t="n">
-        <v>476.8874071605595</v>
+        <v>476.8874071605596</v>
       </c>
       <c r="M14" t="n">
-        <v>717.7089477476839</v>
+        <v>717.708947747684</v>
       </c>
       <c r="N14" t="n">
-        <v>964.2958250261044</v>
+        <v>964.2958250261045</v>
       </c>
       <c r="O14" t="n">
         <v>1191.740040054295</v>
@@ -5305,25 +5305,25 @@
         <v>1520.410126655265</v>
       </c>
       <c r="S14" t="n">
-        <v>1520.410126655265</v>
+        <v>1429.245532482708</v>
       </c>
       <c r="T14" t="n">
-        <v>1520.410126655265</v>
+        <v>1429.245532482708</v>
       </c>
       <c r="U14" t="n">
-        <v>1473.315546898578</v>
+        <v>1429.245532482708</v>
       </c>
       <c r="V14" t="n">
-        <v>1473.315546898578</v>
+        <v>1429.245532482708</v>
       </c>
       <c r="W14" t="n">
-        <v>1473.315546898578</v>
+        <v>1429.245532482708</v>
       </c>
       <c r="X14" t="n">
-        <v>1473.315546898578</v>
+        <v>1429.245532482708</v>
       </c>
       <c r="Y14" t="n">
-        <v>1473.315546898578</v>
+        <v>1045.303581307136</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>490.804176147473</v>
+        <v>264.9851269832378</v>
       </c>
       <c r="C15" t="n">
-        <v>356.8091048964187</v>
+        <v>130.9900557321835</v>
       </c>
       <c r="D15" t="n">
-        <v>259.8608983582727</v>
+        <v>130.9900557321835</v>
       </c>
       <c r="E15" t="n">
-        <v>139.3680823506007</v>
+        <v>130.9900557321835</v>
       </c>
       <c r="F15" t="n">
-        <v>30.40820253310531</v>
+        <v>130.9900557321835</v>
       </c>
       <c r="G15" t="n">
         <v>30.40820253310531</v>
@@ -5354,55 +5354,55 @@
         <v>30.40820253310531</v>
       </c>
       <c r="I15" t="n">
-        <v>30.40820253310531</v>
+        <v>45.02687594044846</v>
       </c>
       <c r="J15" t="n">
-        <v>75.47011308689487</v>
+        <v>333.7571904688713</v>
       </c>
       <c r="K15" t="n">
-        <v>184.1407995924289</v>
+        <v>453.3092942745221</v>
       </c>
       <c r="L15" t="n">
-        <v>514.2355845413466</v>
+        <v>618.1910722447188</v>
       </c>
       <c r="M15" t="n">
-        <v>714.4843740712897</v>
+        <v>818.4398617746619</v>
       </c>
       <c r="N15" t="n">
-        <v>925.8686543920982</v>
+        <v>1029.82414209547</v>
       </c>
       <c r="O15" t="n">
-        <v>1302.170160739276</v>
+        <v>1214.200444262295</v>
       </c>
       <c r="P15" t="n">
-        <v>1442.318506301558</v>
+        <v>1354.348789824577</v>
       </c>
       <c r="Q15" t="n">
-        <v>1515.78668926761</v>
+        <v>1427.816972790629</v>
       </c>
       <c r="R15" t="n">
         <v>1520.410126655265</v>
       </c>
       <c r="S15" t="n">
-        <v>1431.660548847149</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="T15" t="n">
-        <v>1431.660548847149</v>
+        <v>1365.243459319084</v>
       </c>
       <c r="U15" t="n">
-        <v>1234.377885914804</v>
+        <v>1167.960796386739</v>
       </c>
       <c r="V15" t="n">
-        <v>1020.666358907838</v>
+        <v>954.2492693797728</v>
       </c>
       <c r="W15" t="n">
-        <v>807.4331906441668</v>
+        <v>741.0161011161016</v>
       </c>
       <c r="X15" t="n">
-        <v>631.1072087830596</v>
+        <v>564.6901192549944</v>
       </c>
       <c r="Y15" t="n">
-        <v>631.1072087830596</v>
+        <v>405.2881596188245</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.40820253310531</v>
+        <v>422.0195234808738</v>
       </c>
       <c r="C16" t="n">
-        <v>30.40820253310531</v>
+        <v>422.0195234808738</v>
       </c>
       <c r="D16" t="n">
-        <v>30.40820253310531</v>
+        <v>262.5248788037838</v>
       </c>
       <c r="E16" t="n">
-        <v>30.40820253310531</v>
+        <v>262.5248788037838</v>
       </c>
       <c r="F16" t="n">
-        <v>30.40820253310531</v>
+        <v>262.5248788037838</v>
       </c>
       <c r="G16" t="n">
-        <v>30.40820253310531</v>
+        <v>262.5248788037838</v>
       </c>
       <c r="H16" t="n">
-        <v>30.40820253310531</v>
+        <v>120.63847229648</v>
       </c>
       <c r="I16" t="n">
         <v>30.40820253310531</v>
       </c>
       <c r="J16" t="n">
-        <v>104.6662819867954</v>
+        <v>39.66491835545901</v>
       </c>
       <c r="K16" t="n">
-        <v>358.1054907710841</v>
+        <v>293.1041271397477</v>
       </c>
       <c r="L16" t="n">
-        <v>734.4069971182623</v>
+        <v>631.8447815015163</v>
       </c>
       <c r="M16" t="n">
-        <v>812.1246172019772</v>
+        <v>709.5624015852312</v>
       </c>
       <c r="N16" t="n">
-        <v>891.1765839794324</v>
+        <v>1085.863907932409</v>
       </c>
       <c r="O16" t="n">
-        <v>1267.478090326611</v>
+        <v>1462.165414279588</v>
       </c>
       <c r="P16" t="n">
-        <v>1383.610808788392</v>
+        <v>1509.884768994229</v>
       </c>
       <c r="Q16" t="n">
         <v>1520.410126655265</v>
@@ -5478,10 +5478,10 @@
         <v>448.86572344359</v>
       </c>
       <c r="X16" t="n">
-        <v>210.5218613032734</v>
+        <v>448.86572344359</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.5218613032734</v>
+        <v>422.0195234808738</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1136.468175479693</v>
+        <v>426.0644776625683</v>
       </c>
       <c r="C17" t="n">
-        <v>798.2921048842494</v>
+        <v>426.0644776625683</v>
       </c>
       <c r="D17" t="n">
-        <v>798.2921048842494</v>
+        <v>426.0644776625683</v>
       </c>
       <c r="E17" t="n">
-        <v>414.3501537086773</v>
+        <v>426.0644776625683</v>
       </c>
       <c r="F17" t="n">
-        <v>30.40820253310531</v>
+        <v>426.0644776625683</v>
       </c>
       <c r="G17" t="n">
-        <v>30.40820253310531</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="H17" t="n">
-        <v>30.40820253310531</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="I17" t="n">
         <v>30.40820253310531</v>
@@ -5518,16 +5518,16 @@
         <v>118.8631127885982</v>
       </c>
       <c r="K17" t="n">
-        <v>271.9831935811739</v>
+        <v>271.9831935811737</v>
       </c>
       <c r="L17" t="n">
         <v>476.8874071605595</v>
       </c>
       <c r="M17" t="n">
-        <v>717.7089477476839</v>
+        <v>717.708947747684</v>
       </c>
       <c r="N17" t="n">
-        <v>964.2958250261044</v>
+        <v>964.2958250261046</v>
       </c>
       <c r="O17" t="n">
         <v>1191.740040054295</v>
@@ -5542,25 +5542,25 @@
         <v>1520.410126655265</v>
       </c>
       <c r="S17" t="n">
-        <v>1520.410126655265</v>
+        <v>1429.245532482708</v>
       </c>
       <c r="T17" t="n">
-        <v>1520.410126655265</v>
+        <v>1215.513865575961</v>
       </c>
       <c r="U17" t="n">
-        <v>1520.410126655265</v>
+        <v>1215.513865575961</v>
       </c>
       <c r="V17" t="n">
-        <v>1520.410126655265</v>
+        <v>865.6763109124413</v>
       </c>
       <c r="W17" t="n">
-        <v>1520.410126655265</v>
+        <v>481.9160100476099</v>
       </c>
       <c r="X17" t="n">
-        <v>1520.410126655265</v>
+        <v>426.0644776625683</v>
       </c>
       <c r="Y17" t="n">
-        <v>1136.468175479693</v>
+        <v>426.0644776625683</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>334.1062505246592</v>
+        <v>579.5537539555893</v>
       </c>
       <c r="C18" t="n">
-        <v>200.1111792736049</v>
+        <v>482.7123202971067</v>
       </c>
       <c r="D18" t="n">
-        <v>200.1111792736049</v>
+        <v>365.8151625164991</v>
       </c>
       <c r="E18" t="n">
-        <v>200.1111792736049</v>
+        <v>245.3223465088271</v>
       </c>
       <c r="F18" t="n">
-        <v>91.15129945610946</v>
+        <v>136.3624666913316</v>
       </c>
       <c r="G18" t="n">
-        <v>91.15129945610946</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="H18" t="n">
         <v>30.40820253310531</v>
       </c>
       <c r="I18" t="n">
-        <v>30.40820253310531</v>
+        <v>45.02687594044846</v>
       </c>
       <c r="J18" t="n">
-        <v>75.47011308689487</v>
+        <v>333.7571904688713</v>
       </c>
       <c r="K18" t="n">
-        <v>184.1407995924289</v>
+        <v>442.4278769744053</v>
       </c>
       <c r="L18" t="n">
-        <v>349.0225775626257</v>
+        <v>607.309654944602</v>
       </c>
       <c r="M18" t="n">
-        <v>725.3240839098038</v>
+        <v>807.5584444745451</v>
       </c>
       <c r="N18" t="n">
-        <v>1101.625590256982</v>
+        <v>1018.942724795354</v>
       </c>
       <c r="O18" t="n">
-        <v>1286.001892423807</v>
+        <v>1203.319026962179</v>
       </c>
       <c r="P18" t="n">
-        <v>1442.318506301558</v>
+        <v>1343.46737252446</v>
       </c>
       <c r="Q18" t="n">
-        <v>1515.78668926761</v>
+        <v>1427.816972790629</v>
       </c>
       <c r="R18" t="n">
         <v>1520.410126655265</v>
       </c>
       <c r="S18" t="n">
-        <v>1431.660548847149</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="T18" t="n">
-        <v>1276.493881510967</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="U18" t="n">
-        <v>1079.211218578623</v>
+        <v>1323.127463722921</v>
       </c>
       <c r="V18" t="n">
-        <v>865.4996915716565</v>
+        <v>1109.415936715954</v>
       </c>
       <c r="W18" t="n">
-        <v>652.2665233079853</v>
+        <v>896.1827684522831</v>
       </c>
       <c r="X18" t="n">
-        <v>475.9405414468781</v>
+        <v>719.8567865911759</v>
       </c>
       <c r="Y18" t="n">
-        <v>474.4092831602458</v>
+        <v>719.8567865911759</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>501.3812363890892</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="C19" t="n">
-        <v>330.2878639508057</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="D19" t="n">
-        <v>330.2878639508057</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="E19" t="n">
-        <v>330.2878639508057</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="F19" t="n">
-        <v>330.2878639508057</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9058934853433</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="H19" t="n">
         <v>30.40820253310531</v>
@@ -5673,52 +5673,52 @@
         <v>30.40820253310531</v>
       </c>
       <c r="J19" t="n">
-        <v>39.66491835545901</v>
+        <v>104.6662819867954</v>
       </c>
       <c r="K19" t="n">
-        <v>293.1041271397477</v>
+        <v>260.8017439951456</v>
       </c>
       <c r="L19" t="n">
-        <v>669.4056334869258</v>
+        <v>333.2608952380531</v>
       </c>
       <c r="M19" t="n">
-        <v>931.1515185842414</v>
+        <v>709.5624015852312</v>
       </c>
       <c r="N19" t="n">
-        <v>1010.203485361697</v>
+        <v>1085.863907932409</v>
       </c>
       <c r="O19" t="n">
-        <v>1074.993970600633</v>
+        <v>1462.165414279588</v>
       </c>
       <c r="P19" t="n">
-        <v>1383.610808788392</v>
+        <v>1509.884768994229</v>
       </c>
       <c r="Q19" t="n">
         <v>1520.410126655265</v>
       </c>
       <c r="R19" t="n">
-        <v>1474.184756804169</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="S19" t="n">
-        <v>1474.184756804169</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="T19" t="n">
-        <v>1238.346542201119</v>
+        <v>1329.193951893283</v>
       </c>
       <c r="U19" t="n">
-        <v>1238.346542201119</v>
+        <v>1046.443172836261</v>
       </c>
       <c r="V19" t="n">
-        <v>964.460797140641</v>
+        <v>772.5574277757829</v>
       </c>
       <c r="W19" t="n">
-        <v>964.460797140641</v>
+        <v>493.4877632846573</v>
       </c>
       <c r="X19" t="n">
-        <v>726.1169350003245</v>
+        <v>255.1439011443406</v>
       </c>
       <c r="Y19" t="n">
-        <v>501.3812363890892</v>
+        <v>30.40820253310531</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>798.2921048842494</v>
+        <v>311.7057257787851</v>
       </c>
       <c r="C20" t="n">
-        <v>798.2921048842494</v>
+        <v>311.7057257787851</v>
       </c>
       <c r="D20" t="n">
-        <v>798.2921048842494</v>
+        <v>311.7057257787851</v>
       </c>
       <c r="E20" t="n">
-        <v>798.2921048842494</v>
+        <v>311.7057257787851</v>
       </c>
       <c r="F20" t="n">
-        <v>414.3501537086773</v>
+        <v>311.7057257787851</v>
       </c>
       <c r="G20" t="n">
-        <v>30.40820253310531</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="H20" t="n">
-        <v>30.40820253310531</v>
+        <v>42.12252648699621</v>
       </c>
       <c r="I20" t="n">
         <v>30.40820253310531</v>
@@ -5755,16 +5755,16 @@
         <v>118.8631127885983</v>
       </c>
       <c r="K20" t="n">
-        <v>271.9831935811739</v>
+        <v>271.9831935811737</v>
       </c>
       <c r="L20" t="n">
-        <v>476.8874071605596</v>
+        <v>476.8874071605594</v>
       </c>
       <c r="M20" t="n">
-        <v>717.7089477476841</v>
+        <v>717.7089477476837</v>
       </c>
       <c r="N20" t="n">
-        <v>964.2958250261047</v>
+        <v>964.2958250261044</v>
       </c>
       <c r="O20" t="n">
         <v>1191.740040054295</v>
@@ -5779,25 +5779,25 @@
         <v>1520.410126655265</v>
       </c>
       <c r="S20" t="n">
-        <v>1520.410126655265</v>
+        <v>1429.245532482708</v>
       </c>
       <c r="T20" t="n">
-        <v>1520.410126655265</v>
+        <v>1429.245532482708</v>
       </c>
       <c r="U20" t="n">
-        <v>1520.410126655265</v>
+        <v>1429.245532482708</v>
       </c>
       <c r="V20" t="n">
-        <v>1182.052405749081</v>
+        <v>1079.407977819189</v>
       </c>
       <c r="W20" t="n">
-        <v>798.2921048842494</v>
+        <v>695.6476769543572</v>
       </c>
       <c r="X20" t="n">
-        <v>798.2921048842494</v>
+        <v>311.7057257787851</v>
       </c>
       <c r="Y20" t="n">
-        <v>798.2921048842494</v>
+        <v>311.7057257787851</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>264.9851269832378</v>
+        <v>401.7932475724392</v>
       </c>
       <c r="C21" t="n">
-        <v>130.9900557321835</v>
+        <v>267.7981763213849</v>
       </c>
       <c r="D21" t="n">
-        <v>130.9900557321835</v>
+        <v>150.9010185407773</v>
       </c>
       <c r="E21" t="n">
         <v>30.40820253310531</v>
@@ -5828,55 +5828,55 @@
         <v>30.40820253310531</v>
       </c>
       <c r="I21" t="n">
-        <v>45.02687594044846</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="J21" t="n">
-        <v>90.08878649423804</v>
+        <v>319.1385170615281</v>
       </c>
       <c r="K21" t="n">
-        <v>198.7594729997721</v>
+        <v>427.8092035670621</v>
       </c>
       <c r="L21" t="n">
-        <v>363.6412509699688</v>
+        <v>592.6909815372589</v>
       </c>
       <c r="M21" t="n">
-        <v>563.8900404999119</v>
+        <v>792.9397710672021</v>
       </c>
       <c r="N21" t="n">
-        <v>775.2743208207204</v>
+        <v>1004.324051388011</v>
       </c>
       <c r="O21" t="n">
-        <v>959.6506229875454</v>
+        <v>1188.700353554836</v>
       </c>
       <c r="P21" t="n">
-        <v>1099.798968549827</v>
+        <v>1328.848699117117</v>
       </c>
       <c r="Q21" t="n">
-        <v>1476.100474897005</v>
+        <v>1427.816972790629</v>
       </c>
       <c r="R21" t="n">
         <v>1520.410126655265</v>
       </c>
       <c r="S21" t="n">
-        <v>1520.410126655265</v>
+        <v>1431.660548847149</v>
       </c>
       <c r="T21" t="n">
-        <v>1365.243459319084</v>
+        <v>1325.725598047178</v>
       </c>
       <c r="U21" t="n">
-        <v>1167.960796386739</v>
+        <v>1128.442935114833</v>
       </c>
       <c r="V21" t="n">
-        <v>954.2492693797728</v>
+        <v>914.7314081078671</v>
       </c>
       <c r="W21" t="n">
-        <v>741.0161011161016</v>
+        <v>701.4982398441958</v>
       </c>
       <c r="X21" t="n">
-        <v>564.6901192549944</v>
+        <v>701.4982398441958</v>
       </c>
       <c r="Y21" t="n">
-        <v>405.2881596188245</v>
+        <v>542.0962802080259</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.2964914521771</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="C22" t="n">
-        <v>164.2964914521771</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2964914521771</v>
+        <v>30.40820253310531</v>
       </c>
       <c r="E22" t="n">
         <v>30.40820253310531</v>
@@ -5910,52 +5910,52 @@
         <v>30.40820253310531</v>
       </c>
       <c r="J22" t="n">
-        <v>104.6662819867954</v>
+        <v>39.66491835545902</v>
       </c>
       <c r="K22" t="n">
-        <v>185.1413214244327</v>
+        <v>86.82393355403363</v>
       </c>
       <c r="L22" t="n">
-        <v>257.6004726673402</v>
+        <v>159.2830847969411</v>
       </c>
       <c r="M22" t="n">
-        <v>633.9019790145184</v>
+        <v>448.6649181121134</v>
       </c>
       <c r="N22" t="n">
-        <v>1010.203485361696</v>
+        <v>824.9664244592915</v>
       </c>
       <c r="O22" t="n">
-        <v>1074.993970600633</v>
+        <v>1201.26793080647</v>
       </c>
       <c r="P22" t="n">
-        <v>1383.610808788392</v>
+        <v>1509.884768994229</v>
       </c>
       <c r="Q22" t="n">
         <v>1520.410126655265</v>
       </c>
       <c r="R22" t="n">
-        <v>1474.184756804169</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="S22" t="n">
-        <v>1474.184756804169</v>
+        <v>1520.410126655265</v>
       </c>
       <c r="T22" t="n">
-        <v>1238.346542201119</v>
+        <v>1284.571912052215</v>
       </c>
       <c r="U22" t="n">
-        <v>955.5957631440974</v>
+        <v>1046.443172836261</v>
       </c>
       <c r="V22" t="n">
-        <v>681.7100180836194</v>
+        <v>772.5574277757829</v>
       </c>
       <c r="W22" t="n">
-        <v>402.6403535924937</v>
+        <v>493.4877632846573</v>
       </c>
       <c r="X22" t="n">
-        <v>164.2964914521771</v>
+        <v>255.1439011443406</v>
       </c>
       <c r="Y22" t="n">
-        <v>164.2964914521771</v>
+        <v>30.40820253310531</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1264.263112975427</v>
+        <v>1230.340366774115</v>
       </c>
       <c r="C23" t="n">
-        <v>854.1385222886971</v>
+        <v>820.2157760873851</v>
       </c>
       <c r="D23" t="n">
-        <v>449.6745923817576</v>
+        <v>820.2157760873851</v>
       </c>
       <c r="E23" t="n">
-        <v>40.48643694606871</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F23" t="n">
         <v>40.48643694606871</v>
@@ -6025,16 +6025,16 @@
         <v>2024.321847303436</v>
       </c>
       <c r="V23" t="n">
-        <v>1674.484292639916</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W23" t="n">
-        <v>1674.484292639916</v>
+        <v>1640.561546438604</v>
       </c>
       <c r="X23" t="n">
-        <v>1674.484292639916</v>
+        <v>1640.561546438604</v>
       </c>
       <c r="Y23" t="n">
-        <v>1674.484292639916</v>
+        <v>1640.561546438604</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H24" t="n">
         <v>40.48643694606871</v>
@@ -6068,25 +6068,25 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J24" t="n">
-        <v>128.1484679399047</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K24" t="n">
-        <v>271.8704604711962</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L24" t="n">
-        <v>483.8830449928535</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M24" t="n">
-        <v>739.1312627518215</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N24" t="n">
-        <v>1006.970642510971</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O24" t="n">
-        <v>1242.99233126495</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P24" t="n">
-        <v>1424.590652701133</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q24" t="n">
         <v>1918.251596225539</v>
@@ -6110,10 +6110,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>862.8126902484196</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="C25" t="n">
-        <v>691.7193178101361</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="D25" t="n">
-        <v>532.2246731330461</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="E25" t="n">
-        <v>371.3138580013656</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="F25" t="n">
-        <v>206.6827321119568</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="G25" t="n">
-        <v>40.48643694606871</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H25" t="n">
-        <v>40.48643694606871</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I25" t="n">
         <v>40.48643694606871</v>
@@ -6171,28 +6171,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T25" t="n">
-        <v>1986.445114104106</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U25" t="n">
-        <v>1986.445114104106</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V25" t="n">
-        <v>1792.661621885142</v>
+        <v>1232.650576242862</v>
       </c>
       <c r="W25" t="n">
-        <v>1513.591957394016</v>
+        <v>953.5809117517365</v>
       </c>
       <c r="X25" t="n">
-        <v>1275.248095253699</v>
+        <v>715.2370496114199</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.512396642464</v>
+        <v>490.5013510001846</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>748.3591666244623</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="C26" t="n">
-        <v>748.3591666244623</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="D26" t="n">
-        <v>748.3591666244623</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="E26" t="n">
-        <v>748.3591666244623</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="F26" t="n">
-        <v>327.3287545781499</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G26" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H26" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I26" t="n">
-        <v>44.6457459074655</v>
+        <v>44.64574590746552</v>
       </c>
       <c r="J26" t="n">
         <v>167.5334271492898</v>
@@ -6235,10 +6235,10 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501301</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N26" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O26" t="n">
         <v>1568.017893256777</v>
@@ -6250,28 +6250,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R26" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>1942.589711028802</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T26" t="n">
-        <v>1738.829519812579</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U26" t="n">
-        <v>1481.957022152813</v>
+        <v>1581.399323624446</v>
       </c>
       <c r="V26" t="n">
-        <v>1132.119467489294</v>
+        <v>1231.561768960926</v>
       </c>
       <c r="W26" t="n">
-        <v>748.3591666244623</v>
+        <v>847.8014680960947</v>
       </c>
       <c r="X26" t="n">
-        <v>748.3591666244623</v>
+        <v>847.8014680960947</v>
       </c>
       <c r="Y26" t="n">
-        <v>748.3591666244623</v>
+        <v>446.8647950441848</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H27" t="n">
         <v>40.48643694606871</v>
@@ -6305,31 +6305,31 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J27" t="n">
-        <v>371.816871914538</v>
+        <v>128.1484679399047</v>
       </c>
       <c r="K27" t="n">
-        <v>515.5388644458295</v>
+        <v>271.8704604711962</v>
       </c>
       <c r="L27" t="n">
-        <v>727.5514489674867</v>
+        <v>483.8830449928535</v>
       </c>
       <c r="M27" t="n">
-        <v>982.7996667264548</v>
+        <v>739.1312627518215</v>
       </c>
       <c r="N27" t="n">
-        <v>1250.639046485604</v>
+        <v>1006.970642510971</v>
       </c>
       <c r="O27" t="n">
-        <v>1486.660735239583</v>
+        <v>1242.99233126495</v>
       </c>
       <c r="P27" t="n">
-        <v>1668.259056675766</v>
+        <v>1424.590652701133</v>
       </c>
       <c r="Q27" t="n">
-        <v>1918.251596225538</v>
+        <v>1925.610309908733</v>
       </c>
       <c r="R27" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S27" t="n">
         <v>1939.686028373151</v>
@@ -6347,10 +6347,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.8673606094806</v>
+        <v>359.5155919766112</v>
       </c>
       <c r="C28" t="n">
-        <v>585.7739881711971</v>
+        <v>188.4222195383277</v>
       </c>
       <c r="D28" t="n">
-        <v>426.2793434941071</v>
+        <v>188.4222195383277</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3685283624266</v>
+        <v>188.4222195383277</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3685283624266</v>
+        <v>188.4222195383277</v>
       </c>
       <c r="G28" t="n">
-        <v>265.3685283624266</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H28" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I28" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J28" t="n">
-        <v>62.60916429909248</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K28" t="n">
-        <v>337.1911823108421</v>
+        <v>219.6034981877563</v>
       </c>
       <c r="L28" t="n">
-        <v>750.6849613854781</v>
+        <v>633.0972772623923</v>
       </c>
       <c r="M28" t="n">
-        <v>1201.895179771359</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N28" t="n">
         <v>1523.241722224319</v>
       </c>
       <c r="O28" t="n">
-        <v>1928.82906374182</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P28" t="n">
         <v>1998.558115949587</v>
       </c>
       <c r="Q28" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R28" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S28" t="n">
-        <v>1960.60203730668</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T28" t="n">
-        <v>1960.60203730668</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U28" t="n">
-        <v>1960.60203730668</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V28" t="n">
-        <v>1686.716292246202</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.646627755077</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="X28" t="n">
-        <v>1169.30276561476</v>
+        <v>547.2152983706555</v>
       </c>
       <c r="Y28" t="n">
-        <v>944.5670670035249</v>
+        <v>547.2152983706555</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1271.329601214018</v>
+        <v>812.5205967559889</v>
       </c>
       <c r="C29" t="n">
-        <v>861.2050105272881</v>
+        <v>402.396006069259</v>
       </c>
       <c r="D29" t="n">
-        <v>861.2050105272881</v>
+        <v>402.396006069259</v>
       </c>
       <c r="E29" t="n">
-        <v>446.8647950441848</v>
+        <v>402.396006069259</v>
       </c>
       <c r="F29" t="n">
-        <v>446.8647950441848</v>
+        <v>402.396006069259</v>
       </c>
       <c r="G29" t="n">
         <v>40.48643694606871</v>
@@ -6460,7 +6460,7 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746551</v>
+        <v>44.64574590746552</v>
       </c>
       <c r="J29" t="n">
         <v>167.5334271492898</v>
@@ -6487,28 +6487,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R29" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S29" t="n">
-        <v>1942.589711028802</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T29" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U29" t="n">
-        <v>1473.797530420519</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V29" t="n">
-        <v>1271.329601214018</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W29" t="n">
-        <v>1271.329601214018</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="X29" t="n">
-        <v>1271.329601214018</v>
+        <v>1623.678449472388</v>
       </c>
       <c r="Y29" t="n">
-        <v>1271.329601214018</v>
+        <v>1222.741776420478</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H30" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505504</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J30" t="n">
-        <v>108.5806640902073</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K30" t="n">
-        <v>252.3026566214988</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L30" t="n">
-        <v>753.322313829099</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M30" t="n">
-        <v>1008.570531588067</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N30" t="n">
-        <v>1276.409911347216</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O30" t="n">
-        <v>1512.431600101195</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P30" t="n">
-        <v>1817.075202091448</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q30" t="n">
-        <v>1918.251596225538</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R30" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S30" t="n">
         <v>1939.686028373151</v>
@@ -6584,10 +6584,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>503.2687735471262</v>
+        <v>1003.048274546781</v>
       </c>
       <c r="C31" t="n">
-        <v>332.1754011088427</v>
+        <v>831.9549021084979</v>
       </c>
       <c r="D31" t="n">
-        <v>172.6807564317527</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="E31" t="n">
-        <v>40.48643694606871</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="F31" t="n">
-        <v>40.48643694606871</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G31" t="n">
-        <v>40.48643694606871</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H31" t="n">
         <v>40.48643694606871</v>
@@ -6621,52 +6621,52 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J31" t="n">
-        <v>127.6105279304289</v>
+        <v>79.20498950150605</v>
       </c>
       <c r="K31" t="n">
-        <v>402.1925459421785</v>
+        <v>147.5068139275415</v>
       </c>
       <c r="L31" t="n">
-        <v>815.6863250168145</v>
+        <v>561.0005930021775</v>
       </c>
       <c r="M31" t="n">
-        <v>1266.896543402695</v>
+        <v>1012.210811388058</v>
       </c>
       <c r="N31" t="n">
-        <v>1705.830769978741</v>
+        <v>1451.145037964104</v>
       </c>
       <c r="O31" t="n">
-        <v>1802.555103535983</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P31" t="n">
         <v>1872.28415574375</v>
       </c>
       <c r="Q31" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104105</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S31" t="n">
-        <v>1986.445114104105</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T31" t="n">
-        <v>1751.400239417418</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U31" t="n">
-        <v>1468.65958810401</v>
+        <v>1415.483679552061</v>
       </c>
       <c r="V31" t="n">
-        <v>1194.773843043532</v>
+        <v>1415.483679552061</v>
       </c>
       <c r="W31" t="n">
-        <v>915.7041785524059</v>
+        <v>1415.483679552061</v>
       </c>
       <c r="X31" t="n">
-        <v>915.7041785524059</v>
+        <v>1415.483679552061</v>
       </c>
       <c r="Y31" t="n">
-        <v>690.9684799411706</v>
+        <v>1190.747980940826</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1357.22816997918</v>
+        <v>1329.733355028376</v>
       </c>
       <c r="C32" t="n">
-        <v>947.1035792924503</v>
+        <v>1329.733355028376</v>
       </c>
       <c r="D32" t="n">
-        <v>542.6396493855108</v>
+        <v>1329.733355028376</v>
       </c>
       <c r="E32" t="n">
-        <v>542.6396493855108</v>
+        <v>915.3931395452723</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6396493855108</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G32" t="n">
         <v>327.3287545781499</v>
@@ -6697,22 +6697,22 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746551</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K32" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L32" t="n">
-        <v>641.1850750879072</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501301</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N32" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O32" t="n">
         <v>1568.017893256777</v>
@@ -6724,28 +6724,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R32" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S32" t="n">
-        <v>2024.321847303435</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T32" t="n">
-        <v>2024.321847303435</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U32" t="n">
-        <v>1767.44934964367</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="V32" t="n">
-        <v>1767.44934964367</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="W32" t="n">
-        <v>1767.44934964367</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="X32" t="n">
-        <v>1767.44934964367</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.44934964367</v>
+        <v>1329.733355028376</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H33" t="n">
         <v>40.48643694606871</v>
@@ -6779,31 +6779,31 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J33" t="n">
-        <v>128.1484679399047</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K33" t="n">
-        <v>629.168125147505</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L33" t="n">
-        <v>841.1807096691623</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M33" t="n">
-        <v>1096.42892742813</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N33" t="n">
-        <v>1399.455191901286</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O33" t="n">
-        <v>1635.476880655265</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P33" t="n">
-        <v>1817.075202091448</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q33" t="n">
-        <v>1918.251596225538</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R33" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S33" t="n">
         <v>1939.686028373151</v>
@@ -6818,13 +6818,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W33" t="n">
-        <v>1161.199263941872</v>
+        <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.90316016604518</v>
+        <v>750.4051140606059</v>
       </c>
       <c r="C34" t="n">
-        <v>96.90316016604518</v>
+        <v>750.4051140606059</v>
       </c>
       <c r="D34" t="n">
-        <v>96.90316016604518</v>
+        <v>590.9104693835159</v>
       </c>
       <c r="E34" t="n">
-        <v>96.90316016604518</v>
+        <v>429.9996542518353</v>
       </c>
       <c r="F34" t="n">
-        <v>40.48643694606871</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="G34" t="n">
-        <v>40.48643694606871</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H34" t="n">
-        <v>40.48643694606871</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I34" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J34" t="n">
-        <v>127.6105279304289</v>
+        <v>79.20498950150605</v>
       </c>
       <c r="K34" t="n">
-        <v>402.1925459421785</v>
+        <v>147.5068139275415</v>
       </c>
       <c r="L34" t="n">
-        <v>561.0005930021771</v>
+        <v>561.0005930021775</v>
       </c>
       <c r="M34" t="n">
         <v>1012.210811388058</v>
@@ -6879,31 +6879,31 @@
         <v>1872.28415574375</v>
       </c>
       <c r="Q34" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.445114104105</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S34" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T34" t="n">
-        <v>1583.378488176654</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="U34" t="n">
-        <v>1300.637836863245</v>
+        <v>1573.559444749263</v>
       </c>
       <c r="V34" t="n">
-        <v>1026.752091802767</v>
+        <v>1299.673699688785</v>
       </c>
       <c r="W34" t="n">
-        <v>747.6824273116415</v>
+        <v>1213.484674812158</v>
       </c>
       <c r="X34" t="n">
-        <v>509.3385651713249</v>
+        <v>975.1408126718412</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6028665600896</v>
+        <v>750.4051140606059</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2024.321847303436</v>
+        <v>1158.186012332924</v>
       </c>
       <c r="C35" t="n">
-        <v>1614.197256616706</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="D35" t="n">
-        <v>1282.235422573601</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E35" t="n">
-        <v>867.8952070904973</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F35" t="n">
-        <v>446.8647950441848</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G35" t="n">
         <v>40.48643694606871</v>
@@ -6964,25 +6964,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="W35" t="n">
-        <v>2024.321847303436</v>
+        <v>1558.829410163971</v>
       </c>
       <c r="X35" t="n">
-        <v>2024.321847303436</v>
+        <v>1158.186012332924</v>
       </c>
       <c r="Y35" t="n">
-        <v>2024.321847303436</v>
+        <v>1158.186012332924</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>204.8233649521794</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H36" t="n">
         <v>40.48643694606871</v>
@@ -7016,28 +7016,28 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J36" t="n">
-        <v>128.1484679399047</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K36" t="n">
-        <v>271.8704604711962</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L36" t="n">
-        <v>483.8830449928535</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M36" t="n">
-        <v>739.1312627518215</v>
+        <v>1219.585528619118</v>
       </c>
       <c r="N36" t="n">
-        <v>1006.970642510971</v>
+        <v>1487.424908378267</v>
       </c>
       <c r="O36" t="n">
-        <v>1507.990299718571</v>
+        <v>1723.446597132247</v>
       </c>
       <c r="P36" t="n">
-        <v>1689.588621154754</v>
+        <v>1905.04491856843</v>
       </c>
       <c r="Q36" t="n">
-        <v>1918.251596225539</v>
+        <v>2006.22131270252</v>
       </c>
       <c r="R36" t="n">
         <v>2024.321847303436</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.0744540614422</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="C37" t="n">
-        <v>199.9810816231587</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="D37" t="n">
         <v>40.48643694606871</v>
@@ -7095,52 +7095,52 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J37" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K37" t="n">
-        <v>402.1925459421785</v>
+        <v>272.6851259496611</v>
       </c>
       <c r="L37" t="n">
-        <v>815.6863250168145</v>
+        <v>372.1997937892741</v>
       </c>
       <c r="M37" t="n">
-        <v>1266.896543402695</v>
+        <v>823.4100121751546</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.145037964104</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O37" t="n">
-        <v>1541.657620062865</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P37" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q37" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S37" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T37" t="n">
-        <v>1857.549782072051</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U37" t="n">
-        <v>1574.809130758642</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V37" t="n">
-        <v>1300.923385698164</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W37" t="n">
-        <v>1021.853721207038</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="X37" t="n">
-        <v>783.5098590667219</v>
+        <v>547.2152983706555</v>
       </c>
       <c r="Y37" t="n">
-        <v>558.7741604554866</v>
+        <v>322.4795997594202</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>420.9951381148927</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="C38" t="n">
-        <v>420.9951381148927</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="D38" t="n">
-        <v>420.9951381148927</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E38" t="n">
-        <v>420.9951381148927</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F38" t="n">
-        <v>420.9951381148927</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G38" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H38" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746588</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492902</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752968</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L38" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501308</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N38" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O38" t="n">
         <v>1568.017893256777</v>
@@ -7195,31 +7195,31 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q38" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R38" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>1812.402164354919</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U38" t="n">
-        <v>1555.529666695153</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="V38" t="n">
-        <v>1205.692112031634</v>
+        <v>1380.832473416766</v>
       </c>
       <c r="W38" t="n">
-        <v>821.9318111668026</v>
+        <v>1380.832473416766</v>
       </c>
       <c r="X38" t="n">
-        <v>821.9318111668026</v>
+        <v>1380.832473416766</v>
       </c>
       <c r="Y38" t="n">
-        <v>420.9951381148927</v>
+        <v>1286.078244139974</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C39" t="n">
-        <v>551.173218557955</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H39" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I39" t="n">
-        <v>44.85465483997731</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J39" t="n">
-        <v>110.4244879051296</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K39" t="n">
-        <v>254.1464804364211</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L39" t="n">
-        <v>466.1590649580784</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M39" t="n">
-        <v>721.4072827170464</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N39" t="n">
-        <v>1222.426939924647</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O39" t="n">
-        <v>1723.446597132247</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P39" t="n">
-        <v>1905.04491856843</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R39" t="n">
         <v>2024.321847303436</v>
@@ -7283,7 +7283,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T39" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U39" t="n">
         <v>1588.14395921251</v>
@@ -7295,10 +7295,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1030.423078625051</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="C40" t="n">
-        <v>859.3297061867675</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="D40" t="n">
-        <v>699.8350615096774</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="E40" t="n">
-        <v>538.924246377997</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="F40" t="n">
-        <v>374.2931204885882</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G40" t="n">
-        <v>208.0968253227001</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H40" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I40" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J40" t="n">
-        <v>62.60916429909251</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K40" t="n">
         <v>130.910988725128</v>
       </c>
       <c r="L40" t="n">
-        <v>544.4047677997639</v>
+        <v>372.1997937892741</v>
       </c>
       <c r="M40" t="n">
-        <v>995.6149861856445</v>
+        <v>823.4100121751546</v>
       </c>
       <c r="N40" t="n">
-        <v>1434.549212761691</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O40" t="n">
-        <v>1840.136554279192</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P40" t="n">
-        <v>1998.558115949588</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q40" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>1818.423362863342</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T40" t="n">
-        <v>1583.378488176655</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U40" t="n">
-        <v>1583.378488176655</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="V40" t="n">
-        <v>1309.492743116177</v>
+        <v>1515.391227556271</v>
       </c>
       <c r="W40" t="n">
-        <v>1030.423078625051</v>
+        <v>1236.321563065145</v>
       </c>
       <c r="X40" t="n">
-        <v>1030.423078625051</v>
+        <v>1084.895662436687</v>
       </c>
       <c r="Y40" t="n">
-        <v>1030.423078625051</v>
+        <v>860.1599638254522</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>867.8952070904973</v>
+        <v>1272.359136997437</v>
       </c>
       <c r="C41" t="n">
-        <v>867.8952070904973</v>
+        <v>1272.359136997437</v>
       </c>
       <c r="D41" t="n">
         <v>867.8952070904973</v>
@@ -7399,31 +7399,31 @@
         <v>867.8952070904973</v>
       </c>
       <c r="F41" t="n">
-        <v>446.8647950441848</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H41" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746588</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492902</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752968</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879075</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501308</v>
       </c>
       <c r="N41" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
         <v>1568.017893256777</v>
@@ -7432,31 +7432,31 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q41" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R41" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S41" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T41" t="n">
-        <v>1942.589711028803</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U41" t="n">
-        <v>1685.717213369037</v>
+        <v>1622.196691660956</v>
       </c>
       <c r="V41" t="n">
-        <v>1335.879658705518</v>
+        <v>1272.359136997437</v>
       </c>
       <c r="W41" t="n">
-        <v>952.1193578406862</v>
+        <v>1272.359136997437</v>
       </c>
       <c r="X41" t="n">
-        <v>867.8952070904973</v>
+        <v>1272.359136997437</v>
       </c>
       <c r="Y41" t="n">
-        <v>867.8952070904973</v>
+        <v>1272.359136997437</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H42" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I42" t="n">
-        <v>43.01083102505505</v>
+        <v>43.01083102505506</v>
       </c>
       <c r="J42" t="n">
-        <v>352.2490680648406</v>
+        <v>208.7594707336918</v>
       </c>
       <c r="K42" t="n">
-        <v>495.9710605961321</v>
+        <v>352.4814632649832</v>
       </c>
       <c r="L42" t="n">
-        <v>707.9836451177894</v>
+        <v>564.4940477866405</v>
       </c>
       <c r="M42" t="n">
-        <v>963.2318628767574</v>
+        <v>819.7422655456086</v>
       </c>
       <c r="N42" t="n">
-        <v>1231.071242635907</v>
+        <v>1087.581645304758</v>
       </c>
       <c r="O42" t="n">
-        <v>1467.092931389886</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.691252826069</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q42" t="n">
-        <v>1918.251596225539</v>
+        <v>2006.22131270252</v>
       </c>
       <c r="R42" t="n">
         <v>2024.321847303436</v>
@@ -7520,7 +7520,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T42" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U42" t="n">
         <v>1588.14395921251</v>
@@ -7532,10 +7532,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X42" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.4072304396491</v>
+        <v>691.7193178101361</v>
       </c>
       <c r="C43" t="n">
-        <v>371.3138580013656</v>
+        <v>691.7193178101361</v>
       </c>
       <c r="D43" t="n">
-        <v>371.3138580013656</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="E43" t="n">
         <v>371.3138580013656</v>
@@ -7560,34 +7560,34 @@
         <v>206.6827321119568</v>
       </c>
       <c r="G43" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H43" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I43" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J43" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L43" t="n">
-        <v>506.8233170565552</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M43" t="n">
-        <v>958.0335354424358</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N43" t="n">
-        <v>1396.967762018482</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O43" t="n">
-        <v>1802.555103535984</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P43" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q43" t="n">
         <v>2024.321847303436</v>
@@ -7596,25 +7596,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1856.300096062671</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T43" t="n">
-        <v>1621.255221375984</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U43" t="n">
         <v>1338.514570062576</v>
       </c>
       <c r="V43" t="n">
-        <v>1064.628825002098</v>
+        <v>1154.798878561688</v>
       </c>
       <c r="W43" t="n">
-        <v>1064.628825002098</v>
+        <v>1154.798878561688</v>
       </c>
       <c r="X43" t="n">
-        <v>954.8426354449288</v>
+        <v>916.4550164213714</v>
       </c>
       <c r="Y43" t="n">
-        <v>730.1069368336935</v>
+        <v>691.7193178101361</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>678.1609109955209</v>
+        <v>1285.981655162214</v>
       </c>
       <c r="C44" t="n">
-        <v>678.1609109955209</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="D44" t="n">
-        <v>678.1609109955209</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E44" t="n">
-        <v>678.1609109955209</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F44" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G44" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H44" t="n">
         <v>40.48643694606873</v>
@@ -7669,31 +7669,31 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q44" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R44" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S44" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T44" t="n">
-        <v>1812.402164354919</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U44" t="n">
-        <v>1812.402164354919</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="V44" t="n">
-        <v>1462.5646096914</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="W44" t="n">
-        <v>1078.804308826568</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="X44" t="n">
-        <v>678.1609109955209</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="Y44" t="n">
-        <v>678.1609109955209</v>
+        <v>1696.202834826704</v>
       </c>
     </row>
     <row r="45">
@@ -7703,64 +7703,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C45" t="n">
-        <v>551.173218557955</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692776</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H45" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I45" t="n">
-        <v>43.01083102505506</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J45" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K45" t="n">
-        <v>609.6003212978078</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L45" t="n">
-        <v>821.6129058194651</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M45" t="n">
-        <v>1076.861123578433</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.700503337582</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O45" t="n">
-        <v>1723.446597132247</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P45" t="n">
-        <v>1905.04491856843</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R45" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S45" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T45" t="n">
         <v>1785.412051570318</v>
       </c>
       <c r="U45" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V45" t="n">
         <v>1374.432432205544</v>
@@ -7769,10 +7769,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>596.1959494177233</v>
+        <v>655.8644068191014</v>
       </c>
       <c r="C46" t="n">
-        <v>596.1959494177233</v>
+        <v>484.7710343808179</v>
       </c>
       <c r="D46" t="n">
-        <v>596.1959494177233</v>
+        <v>484.7710343808179</v>
       </c>
       <c r="E46" t="n">
-        <v>596.1959494177233</v>
+        <v>484.7710343808179</v>
       </c>
       <c r="F46" t="n">
-        <v>431.5648235283147</v>
+        <v>320.1399084914092</v>
       </c>
       <c r="G46" t="n">
-        <v>265.3685283624266</v>
+        <v>153.9436133255211</v>
       </c>
       <c r="H46" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I46" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J46" t="n">
-        <v>62.60916429909251</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>130.910988725128</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L46" t="n">
-        <v>544.4047677997639</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M46" t="n">
-        <v>995.6149861856445</v>
+        <v>1029.170353416904</v>
       </c>
       <c r="N46" t="n">
-        <v>1434.549212761691</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O46" t="n">
-        <v>1840.136554279192</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P46" t="n">
-        <v>1909.865606486959</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
@@ -7833,25 +7833,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T46" t="n">
-        <v>1789.276972616749</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U46" t="n">
-        <v>1506.536321303341</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="V46" t="n">
-        <v>1232.650576242863</v>
+        <v>1347.369476315507</v>
       </c>
       <c r="W46" t="n">
-        <v>1022.239517952084</v>
+        <v>1068.299811824381</v>
       </c>
       <c r="X46" t="n">
-        <v>783.8956558117677</v>
+        <v>1068.299811824381</v>
       </c>
       <c r="Y46" t="n">
-        <v>783.8956558117677</v>
+        <v>843.5641132131458</v>
       </c>
     </row>
   </sheetData>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>270.3341614562062</v>
       </c>
       <c r="L12" t="n">
-        <v>152.1154884559372</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>193.8638426064174</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>75.64516960614824</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8850,19 +8850,19 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>306.9114698022936</v>
+        <v>306.9114698022935</v>
       </c>
       <c r="M13" t="n">
-        <v>13.9354281411477</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>314.6575970790325</v>
+        <v>120.2291933154184</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.999121658943686</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>10.99133060617865</v>
       </c>
       <c r="L15" t="n">
-        <v>166.8818252310313</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>193.8638426064174</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>306.9114698022936</v>
+        <v>268.9712152715769</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>300.2520601714373</v>
       </c>
       <c r="O16" t="n">
         <v>314.6575970790325</v>
       </c>
       <c r="P16" t="n">
-        <v>69.10440782539402</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4.999121658943686</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>177.8310270881162</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>166.5830565922927</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>16.33158415704</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>10.99133060617818</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>208.3638319047618</v>
+        <v>110.0772189997733</v>
       </c>
       <c r="L19" t="n">
-        <v>306.9114698022936</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>185.8871363773745</v>
+        <v>301.5998851146093</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>300.2520601714373</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>314.6575970790325</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.76545843403778</v>
+        <v>4.999121658943679</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>305.8922458395209</v>
+        <v>25.75766738127219</v>
       </c>
       <c r="R21" t="n">
-        <v>40.08708522283371</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.65254973642696</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>301.5998851146093</v>
+        <v>213.8022355873306</v>
       </c>
       <c r="N22" t="n">
         <v>300.2520601714373</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>314.6575970790325</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>396.4490397881976</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.3193388037191</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>81.42525534725928</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>89.58839339659421</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
@@ -10044,7 +10044,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
-        <v>216.6127447722216</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
         <v>318.2573327462026</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>291.926336046407</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>124.288162175828</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>16.76345980041773</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10284,10 +10284,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>6.274496422707998</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
         <v>127.5494547533709</v>
@@ -10427,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>360.9067319962714</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>35.54230779192568</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>16.76345980041773</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>59.89230224281371</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>239.1776382754176</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>267.6747156097181</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.7743241784794</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>143.2061992167001</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>78.12986811408966</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.862448297901267</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>267.6747156097182</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>143.2061992167001</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10998,7 +10998,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>89.58839339659463</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>101.1907137812974</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>170.0847972377573</v>
+        <v>403.8820839126366</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.167781085619893</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11235,10 +11235,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>23.93045033463878</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>360.9067319962717</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>144.1660656976623</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>150.31933880372</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>108.3233934631254</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.58839339659484</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.01643620402825</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>71.22903489037321</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>30.09428166445593</v>
+        <v>229.3176544474624</v>
       </c>
       <c r="F11" t="n">
-        <v>36.71757626203299</v>
+        <v>36.71757626203305</v>
       </c>
       <c r="G11" t="n">
         <v>402.7243664345872</v>
@@ -23278,7 +23278,7 @@
         <v>288.170675930369</v>
       </c>
       <c r="I11" t="n">
-        <v>11.59718071435199</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>90.25294823083183</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.5943502376797</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3365560365643</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>34.46446008362601</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>104.8947215166441</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>87.8620820300351</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>19.71185318050806</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.7181507608077</v>
+        <v>115.0429119799414</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4675424422307</v>
       </c>
       <c r="I13" t="n">
-        <v>89.32796706574098</v>
+        <v>89.32796706574099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.76311615258535</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>169.5449896719115</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>279.9232712664514</v>
       </c>
       <c r="V13" t="n">
-        <v>227.0066122293142</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>161.481983121205</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>30.09428166445593</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>36.71757626203299</v>
@@ -23512,7 +23512,7 @@
         <v>22.62183477077093</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>288.170675930369</v>
       </c>
       <c r="I14" t="n">
         <v>11.59718071435199</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.25294823083185</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.5943502376797</v>
       </c>
       <c r="U14" t="n">
-        <v>207.712922077444</v>
+        <v>254.3365560365643</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>16.82477465757449</v>
       </c>
     </row>
     <row r="15">
@@ -23579,16 +23579,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>19.74946173003701</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>104.8947215166441</v>
+        <v>5.318686849556642</v>
       </c>
       <c r="H15" t="n">
         <v>60.1356659537741</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>87.8620820300351</v>
       </c>
       <c r="T15" t="n">
-        <v>153.6150006628197</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.510187147637566</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23670,10 +23670,10 @@
         <v>164.7181507608077</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4675424422307</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>89.32796706574098</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>195.9106036620339</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>71.22903489037321</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>30.09428166445593</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>36.71757626203299</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>402.7243664345872</v>
+        <v>22.62183477077093</v>
       </c>
       <c r="H17" t="n">
         <v>288.170675930369</v>
       </c>
       <c r="I17" t="n">
-        <v>11.59718071435199</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>90.25294823083185</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5943502376797</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.3365560365643</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>341.3439467915458</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.82477465757449</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>36.78210121664594</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>104.8947215166441</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>60.1356659537741</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>87.8620820300351</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>153.6150006628197</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>156.2919943360424</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23904,10 +23904,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.7181507608077</v>
       </c>
       <c r="H19" t="n">
-        <v>8.304828399515117</v>
+        <v>140.4675424422307</v>
       </c>
       <c r="I19" t="n">
         <v>89.32796706574098</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>45.76311615258535</v>
       </c>
       <c r="S19" t="n">
         <v>169.5449896719115</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.17581944265666</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9232712664514</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>36.71757626203299</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>22.62183477077093</v>
+        <v>135.8369991357163</v>
       </c>
       <c r="H20" t="n">
         <v>288.170675930369</v>
       </c>
       <c r="I20" t="n">
-        <v>11.59718071435199</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>90.25294823083183</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.5943502376797</v>
@@ -24028,13 +24028,13 @@
         <v>254.3365560365643</v>
       </c>
       <c r="V20" t="n">
-        <v>11.36503541976163</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>16.53443218892068</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24053,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>19.71185318050786</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>107.8702810193205</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>87.8620820300351</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>48.73939937084853</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>26.75230095048263</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>45.76311615258535</v>
       </c>
       <c r="S22" t="n">
         <v>169.5449896719115</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>44.17581944265663</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>5.100539446940218</v>
+        <v>55.08487550421842</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>402.3145745171349</v>
@@ -24265,10 +24265,10 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.9260295492381</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S25" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>79.30123031309887</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.077896814971012</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>106.5257752718866</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5343322142292</v>
+        <v>156.911135903271</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S28" t="n">
-        <v>103.2589218315693</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>44.02410108517654</v>
       </c>
       <c r="H29" t="n">
         <v>283.9738944557603</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
-        <v>145.895929202448</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28.42933068953653</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>83.80004204681616</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>76.19941839459023</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>236.950941325533</v>
       </c>
       <c r="G32" t="n">
-        <v>189.1567886578476</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>107.132258642738</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>190.9518332183537</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>126.5176864009975</v>
       </c>
       <c r="D35" t="n">
-        <v>71.77707490519566</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
         <v>283.9738944557603</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.8004861190321</v>
@@ -25216,10 +25216,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>76.03191685878662</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S37" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>105.0880472280858</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25399,13 +25399,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>25.61096035999924</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
         <v>283.9738944557603</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>303.1206193373664</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>56.69898600932919</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>86.04878189674042</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>66.00035471614476</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>313.2550546100499</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>89.268353023994</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>127.2720958573161</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>69.49627307265206</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>312.2166577958379</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>26.51062383972027</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>67.97202013834382</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>423321.5892752004</v>
+        <v>423321.5892752003</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423321.5892752003</v>
+        <v>423321.5892752004</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423321.5892752002</v>
+        <v>423321.5892752004</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>520295.4365319539</v>
+        <v>520295.436531954</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>520295.436531954</v>
+        <v>520295.4365319541</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>520295.4365319542</v>
+        <v>520295.436531954</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>520295.4365319541</v>
+        <v>520295.4365319543</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>520295.4365319541</v>
+        <v>520295.4365319542</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48502.2727568378</v>
+        <v>48502.27275683781</v>
       </c>
       <c r="C2" t="n">
         <v>48502.2727568378</v>
@@ -26322,10 +26322,10 @@
         <v>48502.2727568378</v>
       </c>
       <c r="E2" t="n">
-        <v>164322.0614723733</v>
+        <v>164322.0614723734</v>
       </c>
       <c r="F2" t="n">
-        <v>164322.0614723733</v>
+        <v>164322.0614723734</v>
       </c>
       <c r="G2" t="n">
         <v>164322.0614723734</v>
@@ -26334,28 +26334,28 @@
         <v>164322.0614723733</v>
       </c>
       <c r="I2" t="n">
+        <v>201490.9183095237</v>
+      </c>
+      <c r="J2" t="n">
         <v>201490.9183095238</v>
       </c>
-      <c r="J2" t="n">
-        <v>201490.9183095236</v>
-      </c>
       <c r="K2" t="n">
-        <v>201490.9183095236</v>
+        <v>201490.9183095237</v>
       </c>
       <c r="L2" t="n">
+        <v>201490.9183095238</v>
+      </c>
+      <c r="M2" t="n">
         <v>201490.9183095237</v>
       </c>
-      <c r="M2" t="n">
-        <v>201490.9183095236</v>
-      </c>
       <c r="N2" t="n">
-        <v>201490.9183095236</v>
+        <v>201490.9183095237</v>
       </c>
       <c r="O2" t="n">
         <v>201490.9183095236</v>
       </c>
       <c r="P2" t="n">
-        <v>201490.9183095237</v>
+        <v>201490.9183095238</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>496523.009366875</v>
+        <v>496523.0093668748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>94723.07130074968</v>
+        <v>94723.07130074965</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>12846.04208051234</v>
       </c>
       <c r="G4" t="n">
-        <v>12846.04208051234</v>
+        <v>12846.04208051233</v>
       </c>
       <c r="H4" t="n">
-        <v>12846.04208051234</v>
+        <v>12846.04208051233</v>
       </c>
       <c r="I4" t="n">
         <v>17006.98919740598</v>
       </c>
       <c r="J4" t="n">
-        <v>17006.98919740597</v>
+        <v>17006.98919740598</v>
       </c>
       <c r="K4" t="n">
         <v>17006.98919740598</v>
       </c>
       <c r="L4" t="n">
-        <v>17006.98919740597</v>
+        <v>17006.98919740598</v>
       </c>
       <c r="M4" t="n">
         <v>17006.98919740598</v>
       </c>
       <c r="N4" t="n">
+        <v>17006.98919740598</v>
+      </c>
+      <c r="O4" t="n">
         <v>17006.98919740599</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17006.98919740598</v>
       </c>
       <c r="P4" t="n">
         <v>17006.98919740599</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>33503.66545772474</v>
+        <v>33503.66545772473</v>
       </c>
       <c r="F5" t="n">
         <v>33503.66545772474</v>
@@ -26493,13 +26493,13 @@
         <v>43385.32273194157</v>
       </c>
       <c r="J5" t="n">
-        <v>43385.32273194156</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="K5" t="n">
-        <v>43385.32273194156</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="L5" t="n">
-        <v>43385.32273194156</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="M5" t="n">
         <v>43385.32273194157</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380524</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380525</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380525</v>
       </c>
       <c r="E6" t="n">
-        <v>-378550.6554327387</v>
+        <v>-379357.8690557011</v>
       </c>
       <c r="F6" t="n">
-        <v>117972.3539341363</v>
+        <v>117165.1403111736</v>
       </c>
       <c r="G6" t="n">
-        <v>117972.3539341363</v>
+        <v>117165.1403111737</v>
       </c>
       <c r="H6" t="n">
-        <v>117972.3539341363</v>
+        <v>117165.1403111735</v>
       </c>
       <c r="I6" t="n">
-        <v>30866.40326606194</v>
+        <v>30245.03392728489</v>
       </c>
       <c r="J6" t="n">
-        <v>141098.6063801761</v>
+        <v>140477.2370413993</v>
       </c>
       <c r="K6" t="n">
-        <v>141098.6063801761</v>
+        <v>140477.2370413992</v>
       </c>
       <c r="L6" t="n">
-        <v>141098.6063801761</v>
+        <v>140477.2370413993</v>
       </c>
       <c r="M6" t="n">
-        <v>46375.53507942639</v>
+        <v>45754.16574064955</v>
       </c>
       <c r="N6" t="n">
-        <v>141098.606380176</v>
+        <v>140477.2370413992</v>
       </c>
       <c r="O6" t="n">
-        <v>141098.6063801761</v>
+        <v>140477.2370413991</v>
       </c>
       <c r="P6" t="n">
-        <v>141098.6063801761</v>
+        <v>140477.2370413993</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>476.7629143378305</v>
+        <v>476.7629143378304</v>
       </c>
       <c r="F3" t="n">
         <v>476.7629143378304</v>
       </c>
       <c r="G3" t="n">
-        <v>476.7629143378304</v>
+        <v>476.7629143378305</v>
       </c>
       <c r="H3" t="n">
         <v>476.7629143378305</v>
@@ -26813,22 +26813,22 @@
         <v>506.0804618258589</v>
       </c>
       <c r="J4" t="n">
-        <v>506.0804618258588</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="K4" t="n">
-        <v>506.0804618258588</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="L4" t="n">
-        <v>506.0804618258588</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="M4" t="n">
         <v>506.0804618258589</v>
       </c>
       <c r="N4" t="n">
+        <v>506.0804618258589</v>
+      </c>
+      <c r="O4" t="n">
         <v>506.0804618258591</v>
-      </c>
-      <c r="O4" t="n">
-        <v>506.0804618258589</v>
       </c>
       <c r="P4" t="n">
         <v>506.0804618258591</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>476.7629143378305</v>
+        <v>476.7629143378304</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.1025316638163</v>
+        <v>380.1025316638162</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.916634831508865</v>
+        <v>1.916634831508864</v>
       </c>
       <c r="H11" t="n">
-        <v>19.62873646819017</v>
+        <v>19.62873646819016</v>
       </c>
       <c r="I11" t="n">
-        <v>73.89106434174558</v>
+        <v>73.89106434174556</v>
       </c>
       <c r="J11" t="n">
-        <v>162.6719855307757</v>
+        <v>162.6719855307756</v>
       </c>
       <c r="K11" t="n">
-        <v>243.803137948546</v>
+        <v>243.8031379485459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.4593511733354</v>
+        <v>302.4593511733353</v>
       </c>
       <c r="M11" t="n">
-        <v>336.5443058581812</v>
+        <v>336.5443058581811</v>
       </c>
       <c r="N11" t="n">
-        <v>341.9899445732058</v>
+        <v>341.9899445732057</v>
       </c>
       <c r="O11" t="n">
-        <v>322.9314069673895</v>
+        <v>322.9314069673894</v>
       </c>
       <c r="P11" t="n">
         <v>275.6144845645143</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.9749996611031</v>
+        <v>206.974999661103</v>
       </c>
       <c r="R11" t="n">
         <v>120.3958127347688</v>
       </c>
       <c r="S11" t="n">
-        <v>43.6753162230083</v>
+        <v>43.67531622300829</v>
       </c>
       <c r="T11" t="n">
-        <v>8.39006897493006</v>
+        <v>8.390068974930058</v>
       </c>
       <c r="U11" t="n">
         <v>0.1533307865207091</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.025490042160617</v>
+        <v>1.025490042160616</v>
       </c>
       <c r="H12" t="n">
-        <v>9.904074880867009</v>
+        <v>9.904074880867006</v>
       </c>
       <c r="I12" t="n">
-        <v>35.30744224105632</v>
+        <v>35.30744224105631</v>
       </c>
       <c r="J12" t="n">
-        <v>96.88632016746422</v>
+        <v>96.88632016746421</v>
       </c>
       <c r="K12" t="n">
         <v>165.5941529922255</v>
       </c>
       <c r="L12" t="n">
-        <v>222.6617742857953</v>
+        <v>222.6617742857952</v>
       </c>
       <c r="M12" t="n">
-        <v>259.8357883141176</v>
+        <v>259.8357883141175</v>
       </c>
       <c r="N12" t="n">
-        <v>266.7128684652737</v>
+        <v>266.7128684652736</v>
       </c>
       <c r="O12" t="n">
-        <v>243.990168057399</v>
+        <v>243.9901680573989</v>
       </c>
       <c r="P12" t="n">
-        <v>195.8236204192497</v>
+        <v>195.8236204192496</v>
       </c>
       <c r="Q12" t="n">
         <v>130.9029043291341</v>
       </c>
       <c r="R12" t="n">
-        <v>63.67033788081444</v>
+        <v>63.67033788081443</v>
       </c>
       <c r="S12" t="n">
-        <v>19.04802775679916</v>
+        <v>19.04802775679915</v>
       </c>
       <c r="T12" t="n">
-        <v>4.133444512042132</v>
+        <v>4.133444512042131</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06746645014214585</v>
+        <v>0.06746645014214583</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8597364029042843</v>
+        <v>0.8597364029042841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.643838200367188</v>
+        <v>7.643838200367187</v>
       </c>
       <c r="I13" t="n">
         <v>25.85461837097612</v>
       </c>
       <c r="J13" t="n">
-        <v>60.7833636853329</v>
+        <v>60.78336368533289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.88573844651593</v>
+        <v>99.8857384465159</v>
       </c>
       <c r="L13" t="n">
-        <v>127.8193557554243</v>
+        <v>127.8193557554242</v>
       </c>
       <c r="M13" t="n">
         <v>134.767589047987</v>
@@ -31934,25 +31934,25 @@
         <v>131.5631170007984</v>
       </c>
       <c r="O13" t="n">
-        <v>121.5198326577802</v>
+        <v>121.5198326577801</v>
       </c>
       <c r="P13" t="n">
         <v>103.9812100385327</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.99120006501239</v>
+        <v>71.99120006501238</v>
       </c>
       <c r="R13" t="n">
-        <v>38.656874988769</v>
+        <v>38.65687498876898</v>
       </c>
       <c r="S13" t="n">
-        <v>14.98286076697739</v>
+        <v>14.98286076697738</v>
       </c>
       <c r="T13" t="n">
-        <v>3.673419176045578</v>
+        <v>3.673419176045577</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04689471288568829</v>
+        <v>0.04689471288568828</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>1.916634831508865</v>
       </c>
       <c r="H17" t="n">
-        <v>19.62873646819016</v>
+        <v>19.62873646819017</v>
       </c>
       <c r="I17" t="n">
         <v>73.89106434174558</v>
       </c>
       <c r="J17" t="n">
-        <v>162.6719855307756</v>
+        <v>162.6719855307757</v>
       </c>
       <c r="K17" t="n">
-        <v>243.8031379485459</v>
+        <v>243.803137948546</v>
       </c>
       <c r="L17" t="n">
         <v>302.4593511733354</v>
       </c>
       <c r="M17" t="n">
-        <v>336.5443058581811</v>
+        <v>336.5443058581812</v>
       </c>
       <c r="N17" t="n">
-        <v>341.9899445732057</v>
+        <v>341.9899445732058</v>
       </c>
       <c r="O17" t="n">
-        <v>322.9314069673894</v>
+        <v>322.9314069673895</v>
       </c>
       <c r="P17" t="n">
         <v>275.6144845645143</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.974999661103</v>
+        <v>206.9749996611031</v>
       </c>
       <c r="R17" t="n">
         <v>120.3958127347688</v>
       </c>
       <c r="S17" t="n">
-        <v>43.67531622300829</v>
+        <v>43.6753162230083</v>
       </c>
       <c r="T17" t="n">
-        <v>8.390068974930058</v>
+        <v>8.39006897493006</v>
       </c>
       <c r="U17" t="n">
         <v>0.1533307865207091</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.025490042160616</v>
+        <v>1.025490042160617</v>
       </c>
       <c r="H18" t="n">
-        <v>9.904074880867007</v>
+        <v>9.904074880867009</v>
       </c>
       <c r="I18" t="n">
-        <v>35.30744224105631</v>
+        <v>35.30744224105632</v>
       </c>
       <c r="J18" t="n">
         <v>96.88632016746422</v>
@@ -32320,19 +32320,19 @@
         <v>165.5941529922255</v>
       </c>
       <c r="L18" t="n">
-        <v>222.6617742857952</v>
+        <v>222.6617742857953</v>
       </c>
       <c r="M18" t="n">
         <v>259.8357883141176</v>
       </c>
       <c r="N18" t="n">
-        <v>266.7128684652736</v>
+        <v>266.7128684652737</v>
       </c>
       <c r="O18" t="n">
-        <v>243.9901680573989</v>
+        <v>243.990168057399</v>
       </c>
       <c r="P18" t="n">
-        <v>195.8236204192496</v>
+        <v>195.8236204192497</v>
       </c>
       <c r="Q18" t="n">
         <v>130.9029043291341</v>
@@ -32341,7 +32341,7 @@
         <v>63.67033788081444</v>
       </c>
       <c r="S18" t="n">
-        <v>19.04802775679915</v>
+        <v>19.04802775679916</v>
       </c>
       <c r="T18" t="n">
         <v>4.133444512042132</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8597364029042842</v>
+        <v>0.8597364029042843</v>
       </c>
       <c r="H19" t="n">
-        <v>7.643838200367187</v>
+        <v>7.643838200367188</v>
       </c>
       <c r="I19" t="n">
         <v>25.85461837097612</v>
       </c>
       <c r="J19" t="n">
-        <v>60.78336368533289</v>
+        <v>60.7833636853329</v>
       </c>
       <c r="K19" t="n">
-        <v>99.88573844651592</v>
+        <v>99.88573844651593</v>
       </c>
       <c r="L19" t="n">
-        <v>127.8193557554242</v>
+        <v>127.8193557554243</v>
       </c>
       <c r="M19" t="n">
         <v>134.767589047987</v>
@@ -32417,16 +32417,16 @@
         <v>71.99120006501239</v>
       </c>
       <c r="R19" t="n">
-        <v>38.65687498876899</v>
+        <v>38.656874988769</v>
       </c>
       <c r="S19" t="n">
         <v>14.98286076697739</v>
       </c>
       <c r="T19" t="n">
-        <v>3.673419176045577</v>
+        <v>3.673419176045578</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04689471288568828</v>
+        <v>0.04689471288568829</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34386,13 +34386,13 @@
         <v>391.9767348990363</v>
       </c>
       <c r="P44" t="n">
-        <v>334.5430745340567</v>
+        <v>334.5430745340572</v>
       </c>
       <c r="Q44" t="n">
         <v>251.2279165868837</v>
       </c>
       <c r="R44" t="n">
-        <v>146.1374042694346</v>
+        <v>146.137404269434</v>
       </c>
       <c r="S44" t="n">
         <v>53.01344954195335</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>89.34839419746771</v>
+        <v>89.34839419746768</v>
       </c>
       <c r="K11" t="n">
         <v>154.6667482753288</v>
       </c>
       <c r="L11" t="n">
-        <v>206.9739531104906</v>
+        <v>206.9739531104905</v>
       </c>
       <c r="M11" t="n">
         <v>243.2540814011357</v>
       </c>
       <c r="N11" t="n">
-        <v>249.0776538165865</v>
+        <v>249.0776538165864</v>
       </c>
       <c r="O11" t="n">
-        <v>229.7416313416064</v>
+        <v>229.7416313416063</v>
       </c>
       <c r="P11" t="n">
-        <v>181.9651212836302</v>
+        <v>181.9651212836301</v>
       </c>
       <c r="Q11" t="n">
         <v>116.941195261951</v>
       </c>
       <c r="R11" t="n">
-        <v>33.08366992004531</v>
+        <v>33.08366992004528</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.7663367750941</v>
+        <v>14.76633677509408</v>
       </c>
       <c r="J12" t="n">
-        <v>45.51708136746421</v>
+        <v>45.51708136746419</v>
       </c>
       <c r="K12" t="n">
-        <v>109.7683702076101</v>
+        <v>380.1025316638163</v>
       </c>
       <c r="L12" t="n">
-        <v>318.6627389308834</v>
+        <v>166.5472504749462</v>
       </c>
       <c r="M12" t="n">
         <v>202.2715045757001</v>
       </c>
       <c r="N12" t="n">
-        <v>213.5194750715237</v>
+        <v>213.5194750715236</v>
       </c>
       <c r="O12" t="n">
-        <v>380.1025316638163</v>
+        <v>186.2386890573989</v>
       </c>
       <c r="P12" t="n">
         <v>141.5639854164459</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.21028582429543</v>
+        <v>149.8554554304436</v>
       </c>
       <c r="R12" t="n">
-        <v>4.670138775409036</v>
+        <v>4.670138775409022</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>75.00816106433342</v>
       </c>
       <c r="K13" t="n">
-        <v>47.6353688874491</v>
+        <v>255.9992007922108</v>
       </c>
       <c r="L13" t="n">
         <v>380.1025316638163</v>
       </c>
       <c r="M13" t="n">
-        <v>92.43807469035468</v>
+        <v>78.50264654920696</v>
       </c>
       <c r="N13" t="n">
-        <v>79.85047149237899</v>
+        <v>79.85047149237896</v>
       </c>
       <c r="O13" t="n">
-        <v>380.1025316638163</v>
+        <v>185.6741279002022</v>
       </c>
       <c r="P13" t="n">
-        <v>311.7341799876361</v>
+        <v>311.734179987636</v>
       </c>
       <c r="Q13" t="n">
         <v>138.1811291584577</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14.76633677509409</v>
       </c>
       <c r="J15" t="n">
-        <v>45.51708136746421</v>
+        <v>291.6467823519422</v>
       </c>
       <c r="K15" t="n">
-        <v>109.7683702076101</v>
+        <v>120.7597008137888</v>
       </c>
       <c r="L15" t="n">
-        <v>333.4290757059775</v>
+        <v>166.5472504749462</v>
       </c>
       <c r="M15" t="n">
         <v>202.2715045757001</v>
@@ -35740,7 +35740,7 @@
         <v>213.5194750715236</v>
       </c>
       <c r="O15" t="n">
-        <v>380.1025316638163</v>
+        <v>186.2386890573989</v>
       </c>
       <c r="P15" t="n">
         <v>141.5639854164459</v>
@@ -35749,7 +35749,7 @@
         <v>74.2102858242954</v>
       </c>
       <c r="R15" t="n">
-        <v>4.670138775409029</v>
+        <v>93.52843824710726</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>75.00816106433342</v>
+        <v>9.350218002377474</v>
       </c>
       <c r="K16" t="n">
         <v>255.9992007922108</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1025316638163</v>
+        <v>342.1622771330996</v>
       </c>
       <c r="M16" t="n">
         <v>78.50264654920696</v>
       </c>
       <c r="N16" t="n">
-        <v>79.85047149237899</v>
+        <v>380.1025316638163</v>
       </c>
       <c r="O16" t="n">
         <v>380.1025316638163</v>
       </c>
       <c r="P16" t="n">
-        <v>117.3057762240219</v>
+        <v>48.20136839862788</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.1811291584577</v>
+        <v>10.63167440508683</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>89.34839419746768</v>
+        <v>89.34839419746771</v>
       </c>
       <c r="K17" t="n">
         <v>154.6667482753288</v>
@@ -35895,10 +35895,10 @@
         <v>243.2540814011357</v>
       </c>
       <c r="N17" t="n">
-        <v>249.0776538165864</v>
+        <v>249.0776538165865</v>
       </c>
       <c r="O17" t="n">
-        <v>229.7416313416063</v>
+        <v>229.7416313416064</v>
       </c>
       <c r="P17" t="n">
         <v>181.9651212836302</v>
@@ -35907,7 +35907,7 @@
         <v>116.941195261951</v>
       </c>
       <c r="R17" t="n">
-        <v>33.0836699200453</v>
+        <v>33.08366992004531</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.7663367750941</v>
       </c>
       <c r="J18" t="n">
-        <v>45.51708136746421</v>
+        <v>291.6467823519422</v>
       </c>
       <c r="K18" t="n">
         <v>109.7683702076101</v>
@@ -35971,22 +35971,22 @@
         <v>166.5472504749462</v>
       </c>
       <c r="M18" t="n">
-        <v>380.1025316638163</v>
+        <v>202.2715045757001</v>
       </c>
       <c r="N18" t="n">
-        <v>380.1025316638163</v>
+        <v>213.5194750715237</v>
       </c>
       <c r="O18" t="n">
-        <v>186.2386890573989</v>
+        <v>186.238689057399</v>
       </c>
       <c r="P18" t="n">
-        <v>157.8955695734859</v>
+        <v>141.5639854164459</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.2102858242954</v>
+        <v>85.20161643047361</v>
       </c>
       <c r="R18" t="n">
-        <v>4.670138775409029</v>
+        <v>93.52843824710726</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>9.350218002377474</v>
+        <v>75.00816106433342</v>
       </c>
       <c r="K19" t="n">
-        <v>255.9992007922108</v>
+        <v>157.7125878872224</v>
       </c>
       <c r="L19" t="n">
+        <v>73.19106186152274</v>
+      </c>
+      <c r="M19" t="n">
         <v>380.1025316638163</v>
       </c>
-      <c r="M19" t="n">
-        <v>264.3897829265815</v>
-      </c>
       <c r="N19" t="n">
-        <v>79.85047149237899</v>
+        <v>380.1025316638163</v>
       </c>
       <c r="O19" t="n">
-        <v>65.44493458478382</v>
+        <v>380.1025316638163</v>
       </c>
       <c r="P19" t="n">
-        <v>311.7341799876361</v>
+        <v>48.2013683986279</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.1811291584577</v>
+        <v>10.63167440508683</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.7663367750941</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>45.51708136746421</v>
+        <v>291.6467823519422</v>
       </c>
       <c r="K21" t="n">
         <v>109.7683702076101</v>
@@ -36220,10 +36220,10 @@
         <v>141.5639854164459</v>
       </c>
       <c r="Q21" t="n">
-        <v>380.1025316638163</v>
+        <v>99.96795320556761</v>
       </c>
       <c r="R21" t="n">
-        <v>44.75722399824274</v>
+        <v>93.52843824710726</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>75.00816106433342</v>
+        <v>9.350218002377481</v>
       </c>
       <c r="K22" t="n">
-        <v>81.28791862387607</v>
+        <v>47.6353688874491</v>
       </c>
       <c r="L22" t="n">
         <v>73.19106186152274</v>
       </c>
       <c r="M22" t="n">
-        <v>380.1025316638163</v>
+        <v>292.3048821365376</v>
       </c>
       <c r="N22" t="n">
         <v>380.1025316638163</v>
       </c>
       <c r="O22" t="n">
-        <v>65.44493458478385</v>
+        <v>380.1025316638163</v>
       </c>
       <c r="P22" t="n">
         <v>311.7341799876361</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.1811291584577</v>
+        <v>10.63167440508683</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
         <v>145.1737298295874</v>
@@ -36457,7 +36457,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q24" t="n">
-        <v>498.6474177014201</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R24" t="n">
         <v>107.1416677554515</v>
@@ -36618,7 +36618,7 @@
         <v>161.1941121877317</v>
       </c>
       <c r="R26" t="n">
-        <v>58.82526145471046</v>
+        <v>58.82526145471063</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J27" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K27" t="n">
         <v>145.1737298295874</v>
@@ -36694,10 +36694,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q27" t="n">
-        <v>252.5177167169415</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R27" t="n">
-        <v>107.1416677554515</v>
+        <v>99.70862363101254</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>22.34618924547856</v>
       </c>
       <c r="K28" t="n">
-        <v>277.3555737492421</v>
+        <v>158.5801352410745</v>
       </c>
       <c r="L28" t="n">
         <v>417.6704839137738</v>
@@ -36764,7 +36764,7 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N28" t="n">
-        <v>324.592467124202</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
         <v>409.6841833510115</v>
@@ -36855,7 +36855,7 @@
         <v>161.1941121877317</v>
       </c>
       <c r="R29" t="n">
-        <v>58.82526145471017</v>
+        <v>58.82526145471063</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J30" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K30" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L30" t="n">
-        <v>506.0804618258588</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M30" t="n">
         <v>257.8264825848162</v>
@@ -36928,10 +36928,10 @@
         <v>238.4057462161408</v>
       </c>
       <c r="P30" t="n">
-        <v>307.7208100911643</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.1983779132224</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R30" t="n">
         <v>107.1416677554515</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.0041323074345</v>
+        <v>39.1096490458963</v>
       </c>
       <c r="K31" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L31" t="n">
         <v>417.6704839137738</v>
@@ -37004,10 +37004,10 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O31" t="n">
-        <v>97.701347027517</v>
+        <v>91.426850604809</v>
       </c>
       <c r="P31" t="n">
-        <v>70.43338606845131</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q31" t="n">
         <v>153.5734258178641</v>
@@ -37071,7 +37071,7 @@
         <v>124.1289709513377</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7938168949557</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L32" t="n">
         <v>271.6421911238497</v>
@@ -37147,10 +37147,10 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J33" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K33" t="n">
-        <v>506.0804618258588</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L33" t="n">
         <v>214.1541257794518</v>
@@ -37159,7 +37159,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N33" t="n">
-        <v>306.0871358314703</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O33" t="n">
         <v>238.4057462161408</v>
@@ -37168,7 +37168,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.1983779132224</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R33" t="n">
         <v>107.1416677554515</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.0041323074345</v>
+        <v>39.1096490458963</v>
       </c>
       <c r="K34" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L34" t="n">
-        <v>160.4121687474733</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M34" t="n">
         <v>455.7678973594753</v>
@@ -37384,7 +37384,7 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J36" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K36" t="n">
         <v>145.1737298295874</v>
@@ -37393,22 +37393,22 @@
         <v>214.1541257794518</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8264825848162</v>
+        <v>497.0041208602337</v>
       </c>
       <c r="N36" t="n">
         <v>270.5448280395447</v>
       </c>
       <c r="O36" t="n">
-        <v>506.0804618258589</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P36" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>230.9727020917018</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R36" t="n">
-        <v>107.1416677554515</v>
+        <v>18.28336828375327</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K37" t="n">
-        <v>277.3555737492421</v>
+        <v>212.1979410611804</v>
       </c>
       <c r="L37" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M37" t="n">
         <v>455.7678973594753</v>
       </c>
       <c r="N37" t="n">
-        <v>186.1095904660701</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O37" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P37" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>4.412341306978369</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
         <v>145.1737298295874</v>
@@ -37633,19 +37633,19 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N39" t="n">
-        <v>506.0804618258591</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O39" t="n">
-        <v>506.0804618258591</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P39" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.1983779132224</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R39" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>68.9917418444803</v>
       </c>
       <c r="L40" t="n">
-        <v>417.6704839137738</v>
+        <v>243.7260657213596</v>
       </c>
       <c r="M40" t="n">
         <v>455.7678973594753</v>
@@ -37718,7 +37718,7 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P40" t="n">
-        <v>160.0217794650459</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q40" t="n">
         <v>26.0239710644933</v>
@@ -37858,7 +37858,7 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J42" t="n">
-        <v>312.361855595743</v>
+        <v>167.4228683925623</v>
       </c>
       <c r="K42" t="n">
         <v>145.1737298295874</v>
@@ -37879,10 +37879,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q42" t="n">
-        <v>272.2831751509797</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R42" t="n">
-        <v>107.1416677554515</v>
+        <v>18.28336828375327</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K43" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L43" t="n">
-        <v>105.6876475902795</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M43" t="n">
         <v>455.7678973594753</v>
@@ -37955,10 +37955,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P43" t="n">
-        <v>70.43338606845131</v>
+        <v>94.36383640309009</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>298.7869592732532</v>
       </c>
       <c r="P44" t="n">
-        <v>240.8937112531725</v>
+        <v>240.8937112531731</v>
       </c>
       <c r="Q44" t="n">
         <v>161.1941121877317</v>
       </c>
       <c r="R44" t="n">
-        <v>58.82526145471109</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J45" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K45" t="n">
-        <v>506.0804618258591</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L45" t="n">
         <v>214.1541257794518</v>
@@ -38110,16 +38110,16 @@
         <v>270.5448280395447</v>
       </c>
       <c r="O45" t="n">
-        <v>382.5718119138031</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P45" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.1983779132224</v>
+        <v>252.5177167169425</v>
       </c>
       <c r="R45" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K46" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M46" t="n">
-        <v>455.7678973594753</v>
+        <v>215.6404327273628</v>
       </c>
       <c r="N46" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O46" t="n">
         <v>409.6841833510115</v>
       </c>
       <c r="P46" t="n">
-        <v>70.43338606845131</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q46" t="n">
-        <v>115.6123644610881</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
